--- a/database/sidis/expdata/5022.xlsx
+++ b/database/sidis/expdata/5022.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+  <si>
+    <t>i</t>
+  </si>
   <si>
     <t>hadron</t>
   </si>
@@ -58,43 +61,7 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>group_index</t>
   </si>
   <si>
     <t>k+</t>
@@ -467,16 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,569 +483,223 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
         <v>27.6</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.06</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.15</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.25</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-0.115</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.02</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.025</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2">
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2">
         <v>0.6213312000000001</v>
       </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
         <v>27.6</v>
       </c>
-      <c r="G3">
-        <v>0.105</v>
-      </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0.193</v>
       </c>
       <c r="I3">
+        <v>0.373</v>
+      </c>
+      <c r="J3">
         <v>0.15</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.25</v>
       </c>
-      <c r="K3">
-        <v>-0.12</v>
-      </c>
       <c r="L3">
-        <v>0.019</v>
+        <v>-0.144</v>
       </c>
       <c r="M3">
         <v>0.021</v>
       </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>1.0873296</v>
+      <c r="N3">
+        <v>0.028</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>3.7274176464</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
         <v>27.6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.193</v>
       </c>
-      <c r="H4">
-        <v>0.2</v>
-      </c>
       <c r="I4">
-        <v>0.15</v>
+        <v>0.647</v>
       </c>
       <c r="J4">
+        <v>0.348</v>
+      </c>
+      <c r="K4">
         <v>0.25</v>
       </c>
-      <c r="K4">
-        <v>-0.08699999999999999</v>
-      </c>
       <c r="L4">
-        <v>0.025</v>
+        <v>-0.081</v>
       </c>
       <c r="M4">
-        <v>0.018</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4">
-        <v>1.99861536</v>
+        <v>0.017</v>
+      </c>
+      <c r="N4">
+        <v>0.021</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>6.4655206896</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
         <v>27.6</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.193</v>
       </c>
-      <c r="H5">
-        <v>0.373</v>
-      </c>
       <c r="I5">
-        <v>0.15</v>
+        <v>0.647</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
+        <v>0.547</v>
       </c>
       <c r="K5">
-        <v>-0.144</v>
+        <v>0.277</v>
       </c>
       <c r="L5">
-        <v>0.021</v>
+        <v>-0.068</v>
       </c>
       <c r="M5">
-        <v>0.028</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5">
-        <v>3.7274176464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>27.6</v>
-      </c>
-      <c r="G6">
-        <v>0.193</v>
-      </c>
-      <c r="H6">
-        <v>0.518</v>
-      </c>
-      <c r="I6">
-        <v>0.15</v>
-      </c>
-      <c r="J6">
-        <v>0.25</v>
-      </c>
-      <c r="K6">
-        <v>-0.08500000000000001</v>
-      </c>
-      <c r="L6">
-        <v>0.015</v>
-      </c>
-      <c r="M6">
-        <v>0.015</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6">
-        <v>5.176413782400001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
+        <v>0.016</v>
+      </c>
+      <c r="N5">
+        <v>0.02</v>
+      </c>
+      <c r="O5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>27.6</v>
-      </c>
-      <c r="G7">
-        <v>0.193</v>
-      </c>
-      <c r="H7">
-        <v>0.647</v>
-      </c>
-      <c r="I7">
-        <v>0.15</v>
-      </c>
-      <c r="J7">
-        <v>0.25</v>
-      </c>
-      <c r="K7">
-        <v>-0.075</v>
-      </c>
-      <c r="L7">
-        <v>0.035</v>
-      </c>
-      <c r="M7">
-        <v>0.029</v>
-      </c>
-      <c r="N7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7">
+      <c r="P5">
         <v>6.4655206896</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>27.6</v>
-      </c>
-      <c r="G8">
-        <v>0.193</v>
-      </c>
-      <c r="H8">
-        <v>0.647</v>
-      </c>
-      <c r="I8">
-        <v>0.348</v>
-      </c>
-      <c r="J8">
-        <v>0.25</v>
-      </c>
-      <c r="K8">
-        <v>-0.081</v>
-      </c>
-      <c r="L8">
-        <v>0.017</v>
-      </c>
-      <c r="M8">
-        <v>0.021</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8">
-        <v>6.4655206896</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>27.6</v>
-      </c>
-      <c r="G9">
-        <v>0.193</v>
-      </c>
-      <c r="H9">
-        <v>0.647</v>
-      </c>
-      <c r="I9">
-        <v>0.447</v>
-      </c>
-      <c r="J9">
-        <v>0.25</v>
-      </c>
-      <c r="K9">
-        <v>-0.103</v>
-      </c>
-      <c r="L9">
-        <v>0.023</v>
-      </c>
-      <c r="M9">
-        <v>0.021</v>
-      </c>
-      <c r="N9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9">
-        <v>6.4655206896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>27.6</v>
-      </c>
-      <c r="G10">
-        <v>0.193</v>
-      </c>
-      <c r="H10">
-        <v>0.647</v>
-      </c>
-      <c r="I10">
-        <v>0.547</v>
-      </c>
-      <c r="J10">
-        <v>0.25</v>
-      </c>
-      <c r="K10">
-        <v>-0.202</v>
-      </c>
-      <c r="L10">
-        <v>0.035</v>
-      </c>
-      <c r="M10">
-        <v>0.021</v>
-      </c>
-      <c r="N10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10">
-        <v>6.4655206896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>27.6</v>
-      </c>
-      <c r="G11">
-        <v>0.193</v>
-      </c>
-      <c r="H11">
-        <v>0.647</v>
-      </c>
-      <c r="I11">
-        <v>0.547</v>
-      </c>
-      <c r="J11">
-        <v>0.277</v>
-      </c>
-      <c r="K11">
-        <v>-0.068</v>
-      </c>
-      <c r="L11">
-        <v>0.016</v>
-      </c>
-      <c r="M11">
-        <v>0.02</v>
-      </c>
-      <c r="N11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11">
-        <v>6.4655206896</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>27.6</v>
-      </c>
-      <c r="G12">
-        <v>0.193</v>
-      </c>
-      <c r="H12">
-        <v>0.647</v>
-      </c>
-      <c r="I12">
-        <v>0.547</v>
-      </c>
-      <c r="J12">
-        <v>0.421</v>
-      </c>
-      <c r="K12">
-        <v>-0.101</v>
-      </c>
-      <c r="L12">
-        <v>0.021</v>
-      </c>
-      <c r="M12">
-        <v>0.022</v>
-      </c>
-      <c r="N12" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12">
-        <v>6.4655206896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>27.6</v>
-      </c>
-      <c r="G13">
-        <v>0.193</v>
-      </c>
-      <c r="H13">
-        <v>0.647</v>
-      </c>
-      <c r="I13">
-        <v>0.547</v>
-      </c>
-      <c r="J13">
-        <v>0.586</v>
-      </c>
-      <c r="K13">
-        <v>-0.193</v>
-      </c>
-      <c r="L13">
-        <v>0.031</v>
-      </c>
-      <c r="M13">
-        <v>0.032</v>
-      </c>
-      <c r="N13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13">
-        <v>6.4655206896</v>
+      <c r="Q5">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
